--- a/reshulffing/output/reshuffle_plan.xlsx
+++ b/reshulffing/output/reshuffle_plan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,11 +483,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SP-RS-A09-001</t>
+          <t>SP-RS-B02-001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.16126598859818</v>
+        <v>3.163289979521045</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,28 +514,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SP-RS-A09-002</t>
+          <t>SP-RS-B02-002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.541247351027375</v>
+        <v>3.106498995868648</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -545,28 +545,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SP-RS-A09-003</t>
+          <t>SP-RS-B02-003</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.678187678765969</v>
+        <v>5.199073003931604</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -576,28 +576,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SP-RS-A09-004</t>
+          <t>SP-RS-B02-004</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.28759613055864</v>
+        <v>6.841705983696841</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,28 +607,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SP-RS-A09-005</t>
+          <t>SP-RS-B02-005</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.84411672362264</v>
+        <v>18.59015541952451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,28 +638,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SP-RS-A09-006</t>
+          <t>SP-RS-B02-006</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.106943955353871</v>
+        <v>5.093273065137652</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -669,28 +669,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SP-RS-A09-007</t>
+          <t>SP-RS-B02-007</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16.23608755244093</v>
+        <v>10.81800060330071</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -700,28 +700,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SP-RS-A09-008</t>
+          <t>SP-RS-B02-008</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7.150973897375637</v>
+        <v>17.51018398133407</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -731,28 +731,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SP-RS-A09-009</t>
+          <t>SP-RS-B02-009</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.534805332571664</v>
+        <v>3.526572347580849</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -762,422 +762,422 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SP-RS-A09-010</t>
+          <t>SP-RS-B02-010</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7.411604509060354</v>
+        <v>4.307239533944569</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SP-RS-A13-001</t>
+          <t>SP-RS-B02-011</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.79693833114178</v>
+        <v>4.988637267149683</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SP-RS-A13-002</t>
+          <t>SP-RS-B02-012</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8.48585850837145</v>
+        <v>13.51531338228887</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SP-RS-A13-003</t>
+          <t>SP-RS-B02-013</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.185629694992179</v>
+        <v>17.74380509623279</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SP-RS-A13-004</t>
+          <t>SP-RS-B02-014</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15.82134708338246</v>
+        <v>13.95433468536397</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SP-RS-A13-005</t>
+          <t>SP-RS-B02-015</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10.30413790826845</v>
+        <v>2.841754732691571</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SP-RS-A13-006</t>
+          <t>SP-RS-B15-001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.540033563541631</v>
+        <v>15.55000458422909</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SP-RS-A13-007</t>
+          <t>SP-RS-B15-002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.902565494215759</v>
+        <v>1.847298312821585</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SP-RS-A13-008</t>
+          <t>SP-RS-B15-003</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7.569681365692708</v>
+        <v>13.20078393071851</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SP-RS-A13-009</t>
+          <t>SP-RS-B15-004</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13.28207833923034</v>
+        <v>1.633753325762742</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SP-RS-A13-010</t>
+          <t>SP-RS-B15-005</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7.341757415609052</v>
+        <v>19.20610124124894</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SP-RS-B09-001</t>
+          <t>SP-RS-B15-006</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.536302231965393</v>
+        <v>11.47882815709423</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SP-RS-B09-002</t>
+          <t>SP-RS-B15-007</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19.06147813730085</v>
+        <v>0.2943412404252899</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>008</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SP-RS-B09-003</t>
+          <t>SP-RS-B15-008</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.312877915726318</v>
+        <v>17.58001453344023</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
         <v>19</v>
@@ -1186,224 +1186,224 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>B15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SP-RS-B15-009</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>9.732241195698661</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>B09</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SP-RS-B09-004</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>14.19780036523619</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>B03</t>
-        </is>
-      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>010</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SP-RS-B09-005</t>
+          <t>SP-RS-B15-010</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7.649610358349487</v>
+        <v>11.94463025804634</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SP-RS-B09-006</t>
+          <t>SP-RS-B15-011</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.940788074301131</v>
+        <v>4.768024759492651</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
         <v>7</v>
-      </c>
-      <c r="G27" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SP-RS-B09-007</t>
+          <t>SP-RS-B15-012</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9.227433421431936</v>
+        <v>14.12715131782897</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SP-RS-B09-008</t>
+          <t>SP-RS-B15-013</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.532944555452218</v>
+        <v>8.142029636388685</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SP-RS-B09-009</t>
+          <t>SP-RS-B15-014</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17.46179051606752</v>
+        <v>6.504896597691614</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B09</t>
+          <t>B15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SP-RS-B09-010</t>
+          <t>SP-RS-B15-015</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.563298785225385</v>
+        <v>14.14388602631956</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1413,28 +1413,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SP-RS-A15-001</t>
+          <t>SP-RS-A11-001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15.09146436918679</v>
+        <v>6.987418278258796</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1444,28 +1444,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SP-RS-A15-002</t>
+          <t>SP-RS-A11-002</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6.059694014287965</v>
+        <v>12.41676416603706</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1475,28 +1475,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SP-RS-A15-003</t>
+          <t>SP-RS-A11-003</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>18.99349726205077</v>
+        <v>4.115897737411083</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1506,28 +1506,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SP-RS-A15-004</t>
+          <t>SP-RS-A11-004</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16.96352997668906</v>
+        <v>15.75093842113576</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1537,28 +1537,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SP-RS-A15-005</t>
+          <t>SP-RS-A11-005</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>17.10177514346601</v>
+        <v>10.0622994268679</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1568,28 +1568,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SP-RS-A15-006</t>
+          <t>SP-RS-A11-006</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14.09044281985985</v>
+        <v>7.411790649852827</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1599,28 +1599,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SP-RS-A15-007</t>
+          <t>SP-RS-A11-007</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>14.88331084004799</v>
+        <v>14.12499617964413</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
         <v>8</v>
-      </c>
-      <c r="G38" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1630,28 +1630,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SP-RS-A15-008</t>
+          <t>SP-RS-A11-008</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>18.02664151427321</v>
+        <v>14.9636871482511</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1661,28 +1661,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SP-RS-A15-009</t>
+          <t>SP-RS-A11-009</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>15.08197965657474</v>
+        <v>5.541572925239086</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1692,360 +1692,360 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SP-RS-A15-010</t>
+          <t>SP-RS-A11-010</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>13.97939656715499</v>
+        <v>12.05857566042217</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SP-RS-A10-001</t>
+          <t>SP-RS-A11-011</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4600822558793936</v>
+        <v>14.5314584042328</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SP-RS-A10-002</t>
+          <t>SP-RS-A11-012</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.248533222359502</v>
+        <v>10.45669142363862</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SP-RS-A10-003</t>
+          <t>SP-RS-A11-013</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8.265997514588424</v>
+        <v>14.43509954861963</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SP-RS-A10-004</t>
+          <t>SP-RS-A11-014</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.349241691136847</v>
+        <v>10.29196860005176</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SP-RS-A10-005</t>
+          <t>SP-RS-A11-015</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.71580620173402</v>
+        <v>4.473234701367503</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SP-RS-A10-006</t>
+          <t>SP-RS-B23-001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16.03931183799444</v>
+        <v>14.18115631339569</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SP-RS-A10-007</t>
+          <t>SP-RS-B23-002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.081151165585459</v>
+        <v>10.46449510787789</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SP-RS-A10-008</t>
+          <t>SP-RS-B23-003</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7.206985889376869</v>
+        <v>5.273635119109613</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SP-RS-A10-009</t>
+          <t>SP-RS-B23-004</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8.833828415084859</v>
+        <v>12.31183849590976</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SP-RS-A10-010</t>
+          <t>SP-RS-B23-005</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6.421152786846843</v>
+        <v>15.10625741651196</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>006</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SP-RS-B20-001</t>
+          <t>SP-RS-B23-006</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.011930509078637</v>
+        <v>6.6811636201304</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>15</v>
@@ -2054,286 +2054,286 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>007</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SP-RS-B20-002</t>
+          <t>SP-RS-B23-007</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.7944166384890019</v>
+        <v>8.02934201122201</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>008</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SP-RS-B20-003</t>
+          <t>SP-RS-B23-008</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>14.93159107711032</v>
+        <v>13.89415166729527</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>009</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SP-RS-B20-004</t>
+          <t>SP-RS-B23-009</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.999779505505302</v>
+        <v>16.03691137201625</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>010</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SP-RS-B20-005</t>
+          <t>SP-RS-B23-010</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>12.85913699086567</v>
+        <v>18.8086116445485</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SP-RS-B20-006</t>
+          <t>SP-RS-B23-011</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.43959159078843</v>
+        <v>8.574481798663985</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SP-RS-B20-007</t>
+          <t>SP-RS-B23-012</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>17.31933761248541</v>
+        <v>16.578970507077</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SP-RS-B20-008</t>
+          <t>SP-RS-B23-013</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>17.91533683429586</v>
+        <v>1.159595561351624</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SP-RS-B20-009</t>
+          <t>SP-RS-B23-014</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10.03583251311867</v>
+        <v>15.38659383277348</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>B23</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SP-RS-B20-010</t>
+          <t>SP-RS-B23-015</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.7614928191215329</v>
+        <v>16.88129664957845</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2343,28 +2343,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SP-RS-A11-001</t>
+          <t>SP-RS-B08-001</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>12.04076615972666</v>
+        <v>5.681286850040368</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2374,19 +2374,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SP-RS-A11-002</t>
+          <t>SP-RS-B08-002</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.476176782144207</v>
+        <v>6.708724938103954</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>17</v>
@@ -2395,7 +2395,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2405,28 +2405,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SP-RS-A11-003</t>
+          <t>SP-RS-B08-003</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8.614192623358583</v>
+        <v>6.537300026803991</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2436,28 +2436,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SP-RS-A11-004</t>
+          <t>SP-RS-B08-004</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>16.71387675241972</v>
+        <v>4.38260545650411</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2467,28 +2467,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SP-RS-A11-005</t>
+          <t>SP-RS-B08-005</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>16.31978308178518</v>
+        <v>19.0429296462682</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F66" t="n">
         <v>4</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2498,28 +2498,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SP-RS-A11-006</t>
+          <t>SP-RS-B08-006</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6.174883286715485</v>
+        <v>10.78521295242699</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2529,28 +2529,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SP-RS-A11-007</t>
+          <t>SP-RS-B08-007</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4.454264224248235</v>
+        <v>11.31196827836123</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2560,28 +2560,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SP-RS-A11-008</t>
+          <t>SP-RS-B08-008</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>14.65659663215131</v>
+        <v>12.35724037005551</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2591,28 +2591,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SP-RS-A11-009</t>
+          <t>SP-RS-B08-009</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>7.48169695757884</v>
+        <v>12.24978566880388</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2622,236 +2622,236 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SP-RS-A11-010</t>
+          <t>SP-RS-B08-010</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>15.02898413599978</v>
+        <v>11.94456855039789</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SP-RS-B02-001</t>
+          <t>SP-RS-B08-011</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>13.69744935863735</v>
+        <v>12.49260335949847</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SP-RS-B02-002</t>
+          <t>SP-RS-B08-012</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>14.28822289415237</v>
+        <v>4.535921799335942</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SP-RS-B02-003</t>
+          <t>SP-RS-B08-013</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>19.10661078247202</v>
+        <v>3.369597645206562</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SP-RS-B02-004</t>
+          <t>SP-RS-B08-014</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.725114074342191</v>
+        <v>13.90009984935011</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>B08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SP-RS-B02-005</t>
+          <t>SP-RS-B08-015</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6.93174906430068</v>
+        <v>8.484335592797432</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SP-RS-B02-006</t>
+          <t>SP-RS-A10-001</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4.839745898021849</v>
+        <v>12.10816869333222</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F77" t="n">
         <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SP-RS-B02-007</t>
+          <t>SP-RS-A10-002</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.44804426466676</v>
+        <v>12.51659621575127</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
         <v>19</v>
@@ -2860,60 +2860,60 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SP-RS-B02-008</t>
+          <t>SP-RS-A10-003</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>17.24898043375435</v>
+        <v>9.411993023078592</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SP-RS-B02-009</t>
+          <t>SP-RS-A10-004</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7.305517056148052</v>
+        <v>6.260225631757502</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G80" t="n">
         <v>16</v>
@@ -2922,348 +2922,348 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B02</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SP-RS-B02-010</t>
+          <t>SP-RS-A10-005</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5.825763743410676</v>
+        <v>3.175405521963966</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G81" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>006</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SP-RS-B08-001</t>
+          <t>SP-RS-A10-006</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5.447181017458556</v>
+        <v>8.216332855793612</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>007</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SP-RS-B08-002</t>
+          <t>SP-RS-A10-007</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>18.71623821224756</v>
+        <v>0.3870516787488663</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>008</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SP-RS-B08-003</t>
+          <t>SP-RS-A10-008</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9.018923657229646</v>
+        <v>7.241251201306881</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F84" t="n">
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>009</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SP-RS-B08-004</t>
+          <t>SP-RS-A10-009</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>7.403251718353974</v>
+        <v>9.866920347029051</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>010</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SP-RS-B08-005</t>
+          <t>SP-RS-A10-010</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7.880629874082245</v>
+        <v>18.53320168613828</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SP-RS-B08-006</t>
+          <t>SP-RS-A10-011</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8.318912294243722</v>
+        <v>0.2440788445077489</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SP-RS-B08-007</t>
+          <t>SP-RS-A10-012</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4.272009884950161</v>
+        <v>6.907650420013184</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SP-RS-B08-008</t>
+          <t>SP-RS-A10-013</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>16.06547878046158</v>
+        <v>6.325631803322945</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SP-RS-B08-009</t>
+          <t>SP-RS-A10-014</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>14.39686079110959</v>
+        <v>17.42828948550919</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SP-RS-B08-010</t>
+          <t>SP-RS-A10-015</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>13.90463205523602</v>
+        <v>8.484656971670997</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3273,28 +3273,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SP-RS-A18-001</t>
+          <t>SP-RS-A29-001</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4.828575955602709</v>
+        <v>11.05051705804834</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3304,19 +3304,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SP-RS-A18-002</t>
+          <t>SP-RS-A29-002</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9.990204501660388</v>
+        <v>1.632813445314379</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
         <v>13</v>
@@ -3325,7 +3325,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3335,28 +3335,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SP-RS-A18-003</t>
+          <t>SP-RS-A29-003</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8.38137928695393</v>
+        <v>17.64121487963549</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3366,28 +3366,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SP-RS-A18-004</t>
+          <t>SP-RS-A29-004</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2.442005516915348</v>
+        <v>15.05144709458643</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G95" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3397,28 +3397,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SP-RS-A18-005</t>
+          <t>SP-RS-A29-005</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.357574779586882</v>
+        <v>2.481861835542171</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3428,28 +3428,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SP-RS-A18-006</t>
+          <t>SP-RS-A29-006</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3.326326862467387</v>
+        <v>2.971865068941673</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3459,28 +3459,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SP-RS-A18-007</t>
+          <t>SP-RS-A29-007</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3.214220172536282</v>
+        <v>9.091175863581045</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3490,28 +3490,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SP-RS-A18-008</t>
+          <t>SP-RS-A29-008</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.197464960563329</v>
+        <v>2.280927374337215</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G99" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3521,28 +3521,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SP-RS-A18-009</t>
+          <t>SP-RS-A29-009</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>11.42882950936048</v>
+        <v>16.58538408237526</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>B04</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3552,42 +3552,42 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SP-RS-A18-010</t>
+          <t>SP-RS-A29-010</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>18.45955842030899</v>
+        <v>6.264984401534704</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SP-RS-A28-001</t>
+          <t>SP-RS-A29-011</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>15.9285034720085</v>
+        <v>3.065957649376471</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3595,38 +3595,38 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SP-RS-A28-002</t>
+          <t>SP-RS-A29-012</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2.020484442974779</v>
+        <v>7.716230687030065</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G103" t="n">
         <v>13</v>
@@ -3635,184 +3635,184 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SP-RS-A28-003</t>
+          <t>SP-RS-A29-013</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2.454670528362628</v>
+        <v>16.19622396259388</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SP-RS-A28-004</t>
+          <t>SP-RS-A29-014</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4.418964238463164</v>
+        <v>17.07186674177458</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SP-RS-A28-005</t>
+          <t>SP-RS-A29-015</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>17.02072047732166</v>
+        <v>3.025808720276519</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SP-RS-A28-006</t>
+          <t>SP-RS-B27-001</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.2762175197486327</v>
+        <v>5.976541011898056</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SP-RS-A28-007</t>
+          <t>SP-RS-B27-002</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>7.472212515961327</v>
+        <v>13.72315508159941</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SP-RS-A28-008</t>
+          <t>SP-RS-B27-003</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4.69496932156462</v>
+        <v>18.78039837546295</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G109" t="n">
         <v>13</v>
@@ -3821,379 +3821,379 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SP-RS-A28-009</t>
+          <t>SP-RS-B27-004</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>17.57109824923904</v>
+        <v>10.64111574972788</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G110" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SP-RS-A28-010</t>
+          <t>SP-RS-B27-005</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>10.17763051429347</v>
+        <v>19.24879330604257</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>006</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SP-RS-A01-001</t>
+          <t>SP-RS-B27-006</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13.22817952608742</v>
+        <v>12.60294331135987</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>007</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SP-RS-A01-002</t>
+          <t>SP-RS-B27-007</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1.700603805341913</v>
+        <v>7.957501293258487</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
         <v>6</v>
-      </c>
-      <c r="G113" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>008</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SP-RS-A01-003</t>
+          <t>SP-RS-B27-008</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2.329515750689306</v>
+        <v>11.87642310131923</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G114" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>009</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SP-RS-A01-004</t>
+          <t>SP-RS-B27-009</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>15.46795014079867</v>
+        <v>10.95007715941563</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>010</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SP-RS-A01-005</t>
+          <t>SP-RS-B27-010</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>14.98785988668727</v>
+        <v>6.24690862542331</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G116" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SP-RS-A01-006</t>
+          <t>SP-RS-B27-011</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2.318957607951942</v>
+        <v>11.00807157531135</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SP-RS-A01-007</t>
+          <t>SP-RS-B27-012</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.28080411414911</v>
+        <v>14.88251480660218</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SP-RS-A01-008</t>
+          <t>SP-RS-B27-013</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>18.82605960384326</v>
+        <v>7.682549252260499</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F119" t="n">
         <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SP-RS-A01-009</t>
+          <t>SP-RS-B27-014</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4.686987557752477</v>
+        <v>10.84202435407964</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G120" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A01</t>
+          <t>B27</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SP-RS-A01-010</t>
+          <t>SP-RS-B27-015</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>14.64385380223169</v>
+        <v>12.51097786181533</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4203,28 +4203,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SP-RS-B06-001</t>
+          <t>SP-RS-B24-001</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>17.71036639571572</v>
+        <v>18.38414476835142</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4234,28 +4234,28 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SP-RS-B06-002</t>
+          <t>SP-RS-B24-002</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5.204327535331683</v>
+        <v>14.95716652517384</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G123" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4265,15 +4265,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SP-RS-B06-003</t>
+          <t>SP-RS-B24-003</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4.101863076525579</v>
+        <v>2.897810992442912</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -4286,7 +4286,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4296,28 +4296,28 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SP-RS-B06-004</t>
+          <t>SP-RS-B24-004</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>13.31182035980063</v>
+        <v>14.53227852270581</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SP-RS-B06-005</t>
+          <t>SP-RS-B24-005</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>17.48333979072531</v>
+        <v>3.786312580296983</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>B19</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -4348,7 +4348,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4358,28 +4358,28 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SP-RS-B06-006</t>
+          <t>SP-RS-B24-006</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>17.17284739690952</v>
+        <v>11.26954929220181</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G127" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4389,59 +4389,59 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SP-RS-B06-007</t>
+          <t>SP-RS-B24-007</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>7.206852576259979</v>
+        <v>0.4347862026248989</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>B24</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SP-RS-B24-008</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.938100321059632</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>B06</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>008</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>SP-RS-B06-008</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>15.53867360377149</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>A27</t>
-        </is>
-      </c>
       <c r="F129" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G129" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4451,28 +4451,28 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SP-RS-B06-009</t>
+          <t>SP-RS-B24-009</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>12.0460192980753</v>
+        <v>8.127747189306053</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4482,50 +4482,50 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SP-RS-B06-010</t>
+          <t>SP-RS-B24-010</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>15.85803600461372</v>
+        <v>7.842332026093352</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F131" t="n">
+        <v>7</v>
+      </c>
+      <c r="G131" t="n">
         <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SP-RS-A03-001</t>
+          <t>SP-RS-B24-011</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2.405739500598385</v>
+        <v>14.30341326468797</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G132" t="n">
         <v>18</v>
@@ -4534,370 +4534,370 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SP-RS-A03-002</t>
+          <t>SP-RS-B24-012</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>15.1958364635396</v>
+        <v>1.928476496287368</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SP-RS-A03-003</t>
+          <t>SP-RS-B24-013</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4.870994781655194</v>
+        <v>12.96802556144301</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SP-RS-A03-004</t>
+          <t>SP-RS-B24-014</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4.034858102062835</v>
+        <v>2.803198248409083</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G135" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B24</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SP-RS-A03-005</t>
+          <t>SP-RS-B24-015</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>7.221478727878586</v>
+        <v>4.076429107944723</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SP-RS-A03-006</t>
+          <t>SP-RS-A27-001</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>5.990512958531396</v>
+        <v>4.556929667506236</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SP-RS-A03-007</t>
+          <t>SP-RS-A27-002</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>16.85850980975313</v>
+        <v>18.25636111896544</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G138" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SP-RS-A03-008</t>
+          <t>SP-RS-A27-003</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>7.443392367069128</v>
+        <v>8.32003232786645</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G139" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SP-RS-A03-009</t>
+          <t>SP-RS-A27-004</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>18.69347764857821</v>
+        <v>1.99828239807857</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G140" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SP-RS-A03-010</t>
+          <t>SP-RS-A27-005</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>13.58060065384396</v>
+        <v>15.76649251158968</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>006</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SP-RS-B25-001</t>
+          <t>SP-RS-A27-006</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>7.285873229718402</v>
+        <v>9.613314132583659</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G142" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>007</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SP-RS-B25-002</t>
+          <t>SP-RS-A27-007</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6.858734767670602</v>
+        <v>4.530858884768525</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>B21</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F143" t="n">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>008</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SP-RS-B25-003</t>
+          <t>SP-RS-A27-008</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>13.56147946222838</v>
+        <v>5.977269845062854</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
         <v>21</v>
@@ -4906,218 +4906,2543 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>009</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SP-RS-B25-004</t>
+          <t>SP-RS-A27-009</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>15.63832142887978</v>
+        <v>10.7780987360871</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>010</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SP-RS-B25-005</t>
+          <t>SP-RS-A27-010</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4.325043618362311</v>
+        <v>16.78419388959858</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>011</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SP-RS-B25-006</t>
+          <t>SP-RS-A27-011</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3.030067354741754</v>
+        <v>8.859060977097725</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>B27</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G147" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>012</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SP-RS-B25-007</t>
+          <t>SP-RS-A27-012</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>11.92730931910792</v>
+        <v>5.747012679565406</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>A08</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F148" t="n">
         <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>013</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SP-RS-B25-008</t>
+          <t>SP-RS-A27-013</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1.793270001691339</v>
+        <v>17.88010968725207</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G149" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>014</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SP-RS-B25-009</t>
+          <t>SP-RS-A27-014</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>16.90827915852577</v>
+        <v>6.654973497802844</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>A27</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SP-RS-A27-015</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>8.30283183777483</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>B09</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-001</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>11.8011046455849</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-002</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>18.59767066904688</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>B06</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>10</v>
+      </c>
+      <c r="G153" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-003</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1.021949130999518</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-004</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2.472945241149282</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>A14</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-005</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>5.47588866021712</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>B06</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-006</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>18.90439848430835</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-007</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>14.42116685531245</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>B09</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>6</v>
+      </c>
+      <c r="G158" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-008</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6.006478183080587</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-009</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>5.031427588211307</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>B06</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-010</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2.162798300363173</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-011</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>8.332051543587921</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>7</v>
+      </c>
+      <c r="G162" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-012</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>17.33939016607499</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-013</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>9.962107041956559</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-014</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>17.23046579718246</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SP-RS-A06-015</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1.953808456335292</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>A23</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>9</v>
+      </c>
+      <c r="G166" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-001</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>5.024495061265418</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>6</v>
+      </c>
+      <c r="G167" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-002</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>17.92655537443186</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-003</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>14.36443478610535</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>8</v>
+      </c>
+      <c r="G169" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-004</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0.7704277776851595</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>6</v>
+      </c>
+      <c r="G170" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-005</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>13.53577396679547</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>A14</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-006</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>18.99101163169867</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>6</v>
+      </c>
+      <c r="G172" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-007</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>14.80939785070431</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>B06</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>9</v>
+      </c>
+      <c r="G173" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-008</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.8991900755066519</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>6</v>
+      </c>
+      <c r="G174" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-009</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>4.235290093842565</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>4</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-010</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>17.04752256192149</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>2</v>
+      </c>
+      <c r="G176" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-011</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>12.34004842367761</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>9</v>
+      </c>
+      <c r="G177" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-012</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.7540960212272241</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>7</v>
+      </c>
+      <c r="G178" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-013</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>3.660710171355925</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+      <c r="G179" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-014</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1.314595061445504</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>B09</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>B29</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SP-RS-B29-015</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>10.26496952177244</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>4</v>
+      </c>
+      <c r="G181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-001</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1.775229859692463</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>8</v>
+      </c>
+      <c r="G182" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-002</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1.542088020677285</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
+      <c r="G183" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-003</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>9.771549910798253</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>4</v>
+      </c>
+      <c r="G184" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-004</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>10.22521628164052</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>10</v>
+      </c>
+      <c r="G185" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-005</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2.102795835427248</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>7</v>
+      </c>
+      <c r="G186" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-006</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>16.37468089477302</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-007</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1.736016566360224</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>B04</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>9</v>
+      </c>
+      <c r="G188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-008</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>5.482478087832519</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>B09</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>6</v>
+      </c>
+      <c r="G189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-009</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>9.27444570149167</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>4</v>
+      </c>
+      <c r="G190" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-010</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>8.075729691368869</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>3</v>
+      </c>
+      <c r="G191" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-011</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>4.413169859090139</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-012</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>3.931517067413189</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>B04</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-013</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>13.41343274857845</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-014</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>15.43064009370918</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>9</v>
+      </c>
+      <c r="G195" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SP-RS-A03-015</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>5.327292733393038</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>7</v>
+      </c>
+      <c r="G196" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-001</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>13.62446367944677</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>5</v>
+      </c>
+      <c r="G197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-002</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>3.265655520835288</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>3</v>
+      </c>
+      <c r="G198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-003</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>15.18783091853527</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-004</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>7.785306799286811</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>B04</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>4</v>
+      </c>
+      <c r="G200" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-005</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>9.839195623970255</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>B09</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>9</v>
+      </c>
+      <c r="G201" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-006</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>15.35171069738978</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>7</v>
+      </c>
+      <c r="G202" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-007</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>13.36448237317199</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>6</v>
+      </c>
+      <c r="G203" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-008</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6.492452921532859</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>5</v>
+      </c>
+      <c r="G204" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-009</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1.357983102449664</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-010</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6570683375363837</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>10</v>
+      </c>
+      <c r="G206" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-011</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9.721219239962954</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>10</v>
+      </c>
+      <c r="G207" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-012</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>5.392571374479185</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>8</v>
+      </c>
+      <c r="G208" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-013</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>6.843502642377244</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>9</v>
+      </c>
+      <c r="G209" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-014</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>9.135380366636314</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>9</v>
+      </c>
+      <c r="G210" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>SP-RS-B18-015</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9573861653810107</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>3</v>
+      </c>
+      <c r="G211" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
           <t>B25</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-001</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>6.817958858023828</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>8</v>
+      </c>
+      <c r="G212" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-002</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>1.96119596510282</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>6</v>
+      </c>
+      <c r="G213" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-003</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>11.78556947509698</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>5</v>
+      </c>
+      <c r="G214" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-004</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>8.356563455649175</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>B06</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-005</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>12.65558753370449</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>B09</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>3</v>
+      </c>
+      <c r="G216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-006</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>8.03353180707208</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>5</v>
+      </c>
+      <c r="G217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-007</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>7.301000392448987</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
+      <c r="G218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-008</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>3.498045274941711</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>9</v>
+      </c>
+      <c r="G219" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-009</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1.897750282351619</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>B26</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>2</v>
+      </c>
+      <c r="G220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>SP-RS-B25-010</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>3.569374769085259</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>B14</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
+      <c r="D221" t="n">
+        <v>9.266096125747652</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
         <v>4</v>
       </c>
-      <c r="G151" t="n">
-        <v>14</v>
+      <c r="G221" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-011</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>19.0631973988935</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>A23</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>6</v>
+      </c>
+      <c r="G222" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-012</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>15.50473580641401</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-013</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>19.10352373360557</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>8</v>
+      </c>
+      <c r="G224" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-014</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9262394106731207</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>7</v>
+      </c>
+      <c r="G225" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SP-RS-B25-015</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>2.53546944793344</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>A23</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
+      <c r="G226" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/reshulffing/output/reshuffle_plan.xlsx
+++ b/reshulffing/output/reshuffle_plan.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,28 +483,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SP-RS-A27-001</t>
+          <t>SP-RS-A01-001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.616093700212493</v>
+        <v>10.63561970740602</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,28 +514,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SP-RS-A27-002</t>
+          <t>SP-RS-A01-002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.90608848264992</v>
+        <v>7.020939419895768</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -545,28 +545,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SP-RS-A27-003</t>
+          <t>SP-RS-A01-003</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.417985215390534</v>
+        <v>14.31732472138999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -576,28 +576,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SP-RS-A27-004</t>
+          <t>SP-RS-A01-004</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.17377539001191</v>
+        <v>7.925819822889095</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,28 +607,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SP-RS-A27-005</t>
+          <t>SP-RS-A01-005</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.77149397434211</v>
+        <v>8.219176811675862</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,28 +638,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SP-RS-A27-006</t>
+          <t>SP-RS-A01-006</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.00653044662833</v>
+        <v>10.44887611386491</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -669,28 +669,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SP-RS-A27-007</t>
+          <t>SP-RS-A01-007</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.10054597905421</v>
+        <v>13.81498921082446</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -700,28 +700,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SP-RS-A27-008</t>
+          <t>SP-RS-A01-008</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.591446987700534</v>
+        <v>2.900497296598196</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -731,19 +731,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SP-RS-A27-009</t>
+          <t>SP-RS-A01-009</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.594489454469303</v>
+        <v>1.417174815517099</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -752,7 +752,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -762,28 +762,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SP-RS-A27-010</t>
+          <t>SP-RS-A01-010</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.97184055265909</v>
+        <v>8.247981397064141</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -793,28 +793,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SP-RS-A27-011</t>
+          <t>SP-RS-A01-011</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.304498138159019</v>
+        <v>9.716916150258537</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -824,19 +824,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SP-RS-A27-012</t>
+          <t>SP-RS-A01-012</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.359529472784329</v>
+        <v>7.278096310777252</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>23</v>
@@ -845,7 +845,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -855,28 +855,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SP-RS-A27-013</t>
+          <t>SP-RS-A01-013</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.18314659209013</v>
+        <v>6.954711130102009</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>B29</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -886,28 +886,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SP-RS-A27-014</t>
+          <t>SP-RS-A01-014</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.183890303573167</v>
+        <v>17.39723717261034</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -917,28 +917,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SP-RS-A27-015</t>
+          <t>SP-RS-A01-015</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.21371882904288</v>
+        <v>12.87989977124561</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -948,28 +948,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SP-RS-A27-016</t>
+          <t>SP-RS-A01-016</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14.56714303224392</v>
+        <v>5.543554773207052</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>B25</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,28 +979,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SP-RS-A27-017</t>
+          <t>SP-RS-A01-017</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.394803804287457</v>
+        <v>2.266229620238622</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1010,28 +1010,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SP-RS-A27-018</t>
+          <t>SP-RS-A01-018</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.005093686094116</v>
+        <v>1.079384952717418</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1041,28 +1041,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SP-RS-A27-019</t>
+          <t>SP-RS-A01-019</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.905863408874767</v>
+        <v>18.80114464073911</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1072,28 +1072,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SP-RS-A27-020</t>
+          <t>SP-RS-A01-020</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.587257277106749</v>
+        <v>13.81384008296534</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1103,28 +1103,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SP-RS-A25-001</t>
+          <t>SP-RS-B10-001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15.95110375384486</v>
+        <v>9.458924566072051</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1134,28 +1134,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SP-RS-A25-002</t>
+          <t>SP-RS-B10-002</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8.009617698796916</v>
+        <v>13.75364575133892</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1165,28 +1165,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SP-RS-A25-003</t>
+          <t>SP-RS-B10-003</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6.287359970127584</v>
+        <v>8.553120870781587</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1196,28 +1196,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SP-RS-A25-004</t>
+          <t>SP-RS-B10-004</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7.549834832770808</v>
+        <v>18.39070071214041</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1227,28 +1227,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SP-RS-A25-005</t>
+          <t>SP-RS-B10-005</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.462091583958955</v>
+        <v>0.6602474619817864</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1258,28 +1258,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SP-RS-A25-006</t>
+          <t>SP-RS-B10-006</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8.447150549600003</v>
+        <v>8.699250491555723</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1289,28 +1289,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SP-RS-A25-007</t>
+          <t>SP-RS-B10-007</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13.88288924065978</v>
+        <v>11.69074253399729</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1320,28 +1320,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SP-RS-A25-008</t>
+          <t>SP-RS-B10-008</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12.05633356838545</v>
+        <v>11.70905711006801</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1351,28 +1351,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SP-RS-A25-009</t>
+          <t>SP-RS-B10-009</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.956293557962461</v>
+        <v>1.5819683349334</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>B29</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1382,28 +1382,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SP-RS-A25-010</t>
+          <t>SP-RS-B10-010</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18.3717520649713</v>
+        <v>13.89712581171122</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1413,28 +1413,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SP-RS-A25-011</t>
+          <t>SP-RS-B10-011</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7.04775526899965</v>
+        <v>8.208928048611941</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1444,28 +1444,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SP-RS-A25-012</t>
+          <t>SP-RS-B10-012</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15.28059885345869</v>
+        <v>3.666682293014568</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1475,11 +1475,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SP-RS-A25-013</t>
+          <t>SP-RS-B10-013</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9.323238214075952</v>
+        <v>6.746681183695021</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1506,28 +1506,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SP-RS-A25-014</t>
+          <t>SP-RS-B10-014</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9.481162280054356</v>
+        <v>10.4717952219843</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1537,28 +1537,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SP-RS-A25-015</t>
+          <t>SP-RS-B10-015</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16.53301763004423</v>
+        <v>10.14994581000435</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1568,28 +1568,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SP-RS-A25-016</t>
+          <t>SP-RS-B10-016</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8.376357907722534</v>
+        <v>13.86517767393731</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1599,28 +1599,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SP-RS-A25-017</t>
+          <t>SP-RS-B10-017</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8.790168556730015</v>
+        <v>1.717346933844918</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1630,28 +1630,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SP-RS-A25-018</t>
+          <t>SP-RS-B10-018</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17.03632708793468</v>
+        <v>7.849614849246469</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1661,28 +1661,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SP-RS-A25-019</t>
+          <t>SP-RS-B10-019</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>15.34848140097075</v>
+        <v>14.43108931084299</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1692,50 +1692,50 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SP-RS-A25-020</t>
+          <t>SP-RS-B10-020</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3.060221160501249</v>
+        <v>16.57410157170992</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>A22</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SP-RS-A22-001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>7.362027345451445</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>B03</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SP-RS-B03-001</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.4328283817430777</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>A11</t>
-        </is>
-      </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G42" t="n">
         <v>15</v>
@@ -1744,7 +1744,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1754,59 +1754,59 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SP-RS-B03-002</t>
+          <t>SP-RS-A22-002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17.4491751521116</v>
+        <v>17.3049045929958</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>A22</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SP-RS-A22-003</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>6.543443670651966</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>B03</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SP-RS-B03-003</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>6.148122030135533</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>B06</t>
-        </is>
-      </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SP-RS-B03-004</t>
+          <t>SP-RS-A22-004</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.725849596682373</v>
+        <v>0.7048344113028576</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1828,16 +1828,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1847,28 +1847,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SP-RS-B03-005</t>
+          <t>SP-RS-A22-005</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>16.44346146813258</v>
+        <v>9.675544618873321</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1878,59 +1878,59 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SP-RS-B03-006</t>
+          <t>SP-RS-A22-006</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.304399906358307</v>
+        <v>16.46466118573631</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>A22</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SP-RS-A22-007</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>16.17379567458415</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>B03</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SP-RS-B03-007</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>15.89066952487489</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>A22</t>
-        </is>
-      </c>
       <c r="F48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1940,28 +1940,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SP-RS-B03-008</t>
+          <t>SP-RS-A22-008</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12.88345912129902</v>
+        <v>17.93682647076282</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1971,28 +1971,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SP-RS-B03-009</t>
+          <t>SP-RS-A22-009</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>17.69092008641253</v>
+        <v>18.5550937799626</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2002,28 +2002,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SP-RS-B03-010</t>
+          <t>SP-RS-A22-010</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11.99061377488471</v>
+        <v>15.18147060682667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2033,28 +2033,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SP-RS-B03-011</t>
+          <t>SP-RS-A22-011</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16.48984827590595</v>
+        <v>8.640321028895507</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2064,28 +2064,28 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SP-RS-B03-012</t>
+          <t>SP-RS-A22-012</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>18.84891352926945</v>
+        <v>0.4977001736556407</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2095,28 +2095,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SP-RS-B03-013</t>
+          <t>SP-RS-A22-013</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>14.50633742851343</v>
+        <v>12.69490064670979</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2126,28 +2126,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SP-RS-B03-014</t>
+          <t>SP-RS-A22-014</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3.294736676604344</v>
+        <v>9.523533664733039</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2157,28 +2157,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SP-RS-B03-015</t>
+          <t>SP-RS-A22-015</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.6765748978550242</v>
+        <v>0.7839423945414108</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2188,28 +2188,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SP-RS-B03-016</t>
+          <t>SP-RS-A22-016</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.39930706059322</v>
+        <v>3.535577922442446</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2219,28 +2219,28 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SP-RS-B03-017</t>
+          <t>SP-RS-A22-017</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.028917172789125</v>
+        <v>3.890991855297748</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2250,28 +2250,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SP-RS-B03-018</t>
+          <t>SP-RS-A22-018</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>14.32014112735294</v>
+        <v>6.648931722378809</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2281,28 +2281,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SP-RS-B03-019</t>
+          <t>SP-RS-A22-019</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.146446366166561</v>
+        <v>0.8532915431367071</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2312,28 +2312,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SP-RS-B03-020</t>
+          <t>SP-RS-A22-020</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9.687442756511984</v>
+        <v>14.78186087961758</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2343,28 +2343,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SP-RS-B01-001</t>
+          <t>SP-RS-B06-001</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>17.14778174177598</v>
+        <v>3.043134125574298</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2374,28 +2374,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SP-RS-B01-002</t>
+          <t>SP-RS-B06-002</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13.32406576412707</v>
+        <v>8.546111044555493</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2405,28 +2405,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SP-RS-B01-003</t>
+          <t>SP-RS-B06-003</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8.788415677624196</v>
+        <v>15.93042661297665</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2436,28 +2436,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SP-RS-B01-004</t>
+          <t>SP-RS-B06-004</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.598752975786888</v>
+        <v>5.94005563883043</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F65" t="n">
         <v>9</v>
       </c>
       <c r="G65" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2467,28 +2467,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SP-RS-B01-005</t>
+          <t>SP-RS-B06-005</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8957815583383392</v>
+        <v>16.7354247497414</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2498,28 +2498,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SP-RS-B01-006</t>
+          <t>SP-RS-B06-006</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9.510233470903003</v>
+        <v>4.265119455234217</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2529,11 +2529,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SP-RS-B01-007</t>
+          <t>SP-RS-B06-007</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>13.87300735964704</v>
+        <v>6.265409939220969</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2541,16 +2541,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2560,28 +2560,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SP-RS-B01-008</t>
+          <t>SP-RS-B06-008</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6.340967715435887</v>
+        <v>10.01090726663246</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2591,28 +2591,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SP-RS-B01-009</t>
+          <t>SP-RS-B06-009</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>17.60087584432465</v>
+        <v>17.72829510654988</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2622,28 +2622,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SP-RS-B01-010</t>
+          <t>SP-RS-B06-010</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3.50732549759635</v>
+        <v>6.773519020937672</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SP-RS-B01-011</t>
+          <t>SP-RS-B06-011</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.055742095631957</v>
+        <v>8.598308271548323</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G72" t="n">
         <v>16</v>
@@ -2674,7 +2674,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2684,28 +2684,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SP-RS-B01-012</t>
+          <t>SP-RS-B06-012</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6.466948069905378</v>
+        <v>9.745346806119663</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2715,28 +2715,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SP-RS-B01-013</t>
+          <t>SP-RS-B06-013</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10.07279954621529</v>
+        <v>5.185029971124156</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G74" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2746,28 +2746,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SP-RS-B01-014</t>
+          <t>SP-RS-B06-014</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>13.75688395223792</v>
+        <v>0.8751498476432135</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G75" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2777,28 +2777,28 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SP-RS-B01-015</t>
+          <t>SP-RS-B06-015</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.9967433351636811</v>
+        <v>1.254428172811588</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>B29</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2808,28 +2808,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SP-RS-B01-016</t>
+          <t>SP-RS-B06-016</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>17.95957806596706</v>
+        <v>1.941576251271401</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2839,28 +2839,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SP-RS-B01-017</t>
+          <t>SP-RS-B06-017</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7.023475254113728</v>
+        <v>7.523972277912208</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2870,28 +2870,28 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SP-RS-B01-018</t>
+          <t>SP-RS-B06-018</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8.482832477784642</v>
+        <v>5.124014318374204</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2901,28 +2901,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SP-RS-B01-019</t>
+          <t>SP-RS-B06-019</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.63386952236974</v>
+        <v>18.80391018056795</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B06</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2932,28 +2932,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SP-RS-B01-020</t>
+          <t>SP-RS-B06-020</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2.229140641877912</v>
+        <v>1.996244946565428</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2963,28 +2963,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SP-RS-B16-001</t>
+          <t>SP-RS-B19-001</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>13.80219627535072</v>
+        <v>18.24866283917366</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2994,28 +2994,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SP-RS-B16-002</t>
+          <t>SP-RS-B19-002</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>13.27411360456714</v>
+        <v>4.326604934956144</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3025,28 +3025,28 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SP-RS-B16-003</t>
+          <t>SP-RS-B19-003</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.944983978611291</v>
+        <v>12.27831863527018</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3056,28 +3056,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SP-RS-B16-004</t>
+          <t>SP-RS-B19-004</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>7.352420165595653</v>
+        <v>8.974509528978187</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3087,28 +3087,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SP-RS-B16-005</t>
+          <t>SP-RS-B19-005</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>11.41077436700395</v>
+        <v>9.318279243200758</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3118,28 +3118,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SP-RS-B16-006</t>
+          <t>SP-RS-B19-006</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>16.09107606998505</v>
+        <v>0.543521648475539</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F87" t="n">
         <v>7</v>
       </c>
       <c r="G87" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3149,28 +3149,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SP-RS-B16-007</t>
+          <t>SP-RS-B19-007</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>13.75413885765772</v>
+        <v>4.900539540156029</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3180,28 +3180,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SP-RS-B16-008</t>
+          <t>SP-RS-B19-008</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3.48590495190564</v>
+        <v>8.020040688521387</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3211,28 +3211,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SP-RS-B16-009</t>
+          <t>SP-RS-B19-009</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>12.08721981274086</v>
+        <v>5.158449216169243</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3242,28 +3242,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SP-RS-B16-010</t>
+          <t>SP-RS-B19-010</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>12.03150415502766</v>
+        <v>6.988904365971293</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3273,28 +3273,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SP-RS-B16-011</t>
+          <t>SP-RS-B19-011</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>12.74358870737997</v>
+        <v>11.3590945951051</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3304,15 +3304,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SP-RS-B16-012</t>
+          <t>SP-RS-B19-012</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>17.29471260709016</v>
+        <v>14.95744825472794</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3325,7 +3325,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3335,28 +3335,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SP-RS-B16-013</t>
+          <t>SP-RS-B19-013</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3.6568416200136</v>
+        <v>14.58950428526752</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3366,28 +3366,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SP-RS-B16-014</t>
+          <t>SP-RS-B19-014</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.4416643391318837</v>
+        <v>10.14469244204701</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3397,28 +3397,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SP-RS-B16-015</t>
+          <t>SP-RS-B19-015</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3.551214608699422</v>
+        <v>1.455281499783693</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3428,28 +3428,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SP-RS-B16-016</t>
+          <t>SP-RS-B19-016</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>15.91160414638841</v>
+        <v>9.773573208578405</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3459,28 +3459,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SP-RS-B16-017</t>
+          <t>SP-RS-B19-017</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3.783619813910927</v>
+        <v>15.54918471432882</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3490,28 +3490,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SP-RS-B16-018</t>
+          <t>SP-RS-B19-018</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>7.50986236085693</v>
+        <v>12.52141018003288</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3521,28 +3521,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SP-RS-B16-019</t>
+          <t>SP-RS-B19-019</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>12.56048190287593</v>
+        <v>5.679250581856395</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G100" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>B16</t>
+          <t>B19</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3552,28 +3552,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SP-RS-B16-020</t>
+          <t>SP-RS-B19-020</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6.023419110403907</v>
+        <v>16.36803497462891</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3583,28 +3583,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SP-RS-A16-001</t>
+          <t>SP-RS-A09-001</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5.955930420766279</v>
+        <v>1.878560213673032</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3614,28 +3614,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SP-RS-A16-002</t>
+          <t>SP-RS-A09-002</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>13.52372269713918</v>
+        <v>6.089352232227624</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>B25</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3645,28 +3645,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SP-RS-A16-003</t>
+          <t>SP-RS-A09-003</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13.36331189167483</v>
+        <v>10.15384558342933</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G104" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3676,28 +3676,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SP-RS-A16-004</t>
+          <t>SP-RS-A09-004</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>15.22091316284332</v>
+        <v>4.618219789564794</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3707,28 +3707,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SP-RS-A16-005</t>
+          <t>SP-RS-A09-005</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>9.355913257926199</v>
+        <v>17.75086957928182</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>B29</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3738,28 +3738,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SP-RS-A16-006</t>
+          <t>SP-RS-A09-006</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>8.781766767428087</v>
+        <v>18.77293948729347</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B29</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3769,28 +3769,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SP-RS-A16-007</t>
+          <t>SP-RS-A09-007</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13.77117070054395</v>
+        <v>16.37119469881361</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G108" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3800,28 +3800,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SP-RS-A16-008</t>
+          <t>SP-RS-A09-008</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>14.69641678257499</v>
+        <v>9.439055463139098</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G109" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3831,59 +3831,59 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SP-RS-A16-009</t>
+          <t>SP-RS-A09-009</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>15.65213317396742</v>
+        <v>16.34276121635855</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F110" t="n">
         <v>6</v>
       </c>
       <c r="G110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>A09</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SP-RS-A09-010</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>9.684198279197314</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>A16</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>SP-RS-A16-010</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>8.793407048804028</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>B29</t>
-        </is>
-      </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3893,28 +3893,28 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SP-RS-A16-011</t>
+          <t>SP-RS-A09-011</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14.36657343934224</v>
+        <v>17.52630824392298</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G112" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3924,28 +3924,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SP-RS-A16-012</t>
+          <t>SP-RS-A09-012</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>13.10997870519208</v>
+        <v>1.698628076259212</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3955,28 +3955,28 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SP-RS-A16-013</t>
+          <t>SP-RS-A09-013</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>17.99473815294032</v>
+        <v>4.578837757005114</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3986,28 +3986,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SP-RS-A16-014</t>
+          <t>SP-RS-A09-014</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>14.99316270883295</v>
+        <v>12.27092730571485</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4017,28 +4017,28 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SP-RS-A16-015</t>
+          <t>SP-RS-A09-015</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3.796258861311375</v>
+        <v>11.58481151696909</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4048,28 +4048,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SP-RS-A16-016</t>
+          <t>SP-RS-A09-016</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>11.02474423998358</v>
+        <v>12.54647349261042</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4079,11 +4079,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SP-RS-A16-017</t>
+          <t>SP-RS-A09-017</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>16.9644308940399</v>
+        <v>6.924282696882041</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4091,16 +4091,16 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4110,28 +4110,28 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SP-RS-A16-018</t>
+          <t>SP-RS-A09-018</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>19.08437251005327</v>
+        <v>5.098615562312042</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G119" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4141,28 +4141,28 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SP-RS-A16-019</t>
+          <t>SP-RS-A09-019</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.4189051345084372</v>
+        <v>16.82505937101526</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G120" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A09</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4172,28 +4172,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SP-RS-A16-020</t>
+          <t>SP-RS-A09-020</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>15.45241197078922</v>
+        <v>10.30376789516325</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F121" t="n">
         <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4203,28 +4203,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SP-RS-A03-001</t>
+          <t>SP-RS-B13-001</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>7.363814957052034</v>
+        <v>3.293996818357545</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4234,28 +4234,28 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SP-RS-A03-002</t>
+          <t>SP-RS-B13-002</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6.886357963905331</v>
+        <v>0.8113161291407855</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4265,15 +4265,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SP-RS-A03-003</t>
+          <t>SP-RS-B13-003</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>15.64665880724789</v>
+        <v>15.91070459074647</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -4286,7 +4286,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4296,28 +4296,28 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SP-RS-A03-004</t>
+          <t>SP-RS-B13-004</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>17.944021225492</v>
+        <v>3.294332311642635</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>B25</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4327,28 +4327,28 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SP-RS-A03-005</t>
+          <t>SP-RS-B13-005</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>15.54268545887252</v>
+        <v>5.271884782598731</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4358,28 +4358,28 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SP-RS-A03-006</t>
+          <t>SP-RS-B13-006</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.2305185682273265</v>
+        <v>4.995586553020813</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4389,28 +4389,28 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SP-RS-A03-007</t>
+          <t>SP-RS-B13-007</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4.871827246144792</v>
+        <v>14.71074966572279</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4420,28 +4420,28 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SP-RS-A03-008</t>
+          <t>SP-RS-B13-008</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>11.26949738775057</v>
+        <v>16.88550718474663</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G129" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4451,28 +4451,28 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SP-RS-A03-009</t>
+          <t>SP-RS-B13-009</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1.589364063685316</v>
+        <v>16.0739358884655</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4482,15 +4482,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SP-RS-A03-010</t>
+          <t>SP-RS-B13-010</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.5255862095335758</v>
+        <v>1.760254092875792</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -4503,7 +4503,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4513,28 +4513,28 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SP-RS-A03-011</t>
+          <t>SP-RS-B13-011</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>17.6736616530188</v>
+        <v>2.742580192883378</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G132" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4544,28 +4544,28 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SP-RS-A03-012</t>
+          <t>SP-RS-B13-012</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>16.70083075302777</v>
+        <v>6.247231348207401</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G133" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4575,19 +4575,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SP-RS-A03-013</t>
+          <t>SP-RS-B13-013</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3.451930012025191</v>
+        <v>12.86732530342289</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G134" t="n">
         <v>26</v>
@@ -4596,7 +4596,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4606,28 +4606,28 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SP-RS-A03-014</t>
+          <t>SP-RS-B13-014</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>16.5493453033541</v>
+        <v>16.99221176228346</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>B20</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4637,28 +4637,28 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SP-RS-A03-015</t>
+          <t>SP-RS-B13-015</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>7.374189941999748</v>
+        <v>9.56242999500583</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G136" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4668,28 +4668,28 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SP-RS-A03-016</t>
+          <t>SP-RS-B13-016</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>12.18616089260095</v>
+        <v>19.25875508417436</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G137" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4699,28 +4699,28 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SP-RS-A03-017</t>
+          <t>SP-RS-B13-017</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>12.74397004213033</v>
+        <v>12.39327723681701</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G138" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4730,28 +4730,28 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SP-RS-A03-018</t>
+          <t>SP-RS-B13-018</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2.393134220099101</v>
+        <v>6.27553927048523</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4761,28 +4761,28 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SP-RS-A03-019</t>
+          <t>SP-RS-B13-019</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>15.96219457569081</v>
+        <v>16.01880032823352</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A03</t>
+          <t>B13</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4792,28 +4792,28 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SP-RS-A03-020</t>
+          <t>SP-RS-B13-020</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>16.61618394148687</v>
+        <v>3.819497607078574</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G141" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4823,28 +4823,28 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SP-RS-A23-001</t>
+          <t>SP-RS-A07-001</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1.815466827792899</v>
+        <v>7.76314053583774</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G142" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4854,28 +4854,28 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SP-RS-A23-002</t>
+          <t>SP-RS-A07-002</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>15.42676384592262</v>
+        <v>6.62738705569179</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4885,28 +4885,28 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SP-RS-A23-003</t>
+          <t>SP-RS-A07-003</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>11.55876608476107</v>
+        <v>5.557245625869818</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F144" t="n">
         <v>5</v>
       </c>
       <c r="G144" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4916,28 +4916,28 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SP-RS-A23-004</t>
+          <t>SP-RS-A07-004</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.3721418277192918</v>
+        <v>5.053484833718782</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G145" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4947,28 +4947,28 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SP-RS-A23-005</t>
+          <t>SP-RS-A07-005</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>11.40326065175925</v>
+        <v>10.73834139928182</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4978,28 +4978,28 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SP-RS-A23-006</t>
+          <t>SP-RS-A07-006</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4.277622899760975</v>
+        <v>5.469702920869912</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5009,28 +5009,28 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SP-RS-A23-007</t>
+          <t>SP-RS-A07-007</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>6.023909728622982</v>
+        <v>8.709801329382859</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F148" t="n">
         <v>7</v>
       </c>
       <c r="G148" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5040,28 +5040,28 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SP-RS-A23-008</t>
+          <t>SP-RS-A07-008</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>7.021101293089321</v>
+        <v>7.581872188824238</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5071,28 +5071,28 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SP-RS-A23-009</t>
+          <t>SP-RS-A07-009</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13.90987961502604</v>
+        <v>2.928025281291326</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5102,28 +5102,28 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SP-RS-A23-010</t>
+          <t>SP-RS-A07-010</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>12.87002217659875</v>
+        <v>12.80437495714352</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G151" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5133,28 +5133,28 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SP-RS-A23-011</t>
+          <t>SP-RS-A07-011</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>8.784911211327513</v>
+        <v>8.526132418433518</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G152" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5164,28 +5164,28 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SP-RS-A23-012</t>
+          <t>SP-RS-A07-012</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>5.087064235890377</v>
+        <v>4.86702889415745</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5195,28 +5195,28 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SP-RS-A23-013</t>
+          <t>SP-RS-A07-013</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>13.74534777634361</v>
+        <v>16.32280351618276</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5226,11 +5226,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SP-RS-A23-014</t>
+          <t>SP-RS-A07-014</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5.148783992438254</v>
+        <v>8.115036652921843</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5238,16 +5238,16 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G155" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5257,28 +5257,28 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SP-RS-A23-015</t>
+          <t>SP-RS-A07-015</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>13.63016307669831</v>
+        <v>3.021986836456841</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5288,15 +5288,15 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SP-RS-A23-016</t>
+          <t>SP-RS-A07-016</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>8.52096160986582</v>
+        <v>11.63260293344634</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -5309,7 +5309,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5319,28 +5319,28 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SP-RS-A23-017</t>
+          <t>SP-RS-A07-017</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>11.24108292449345</v>
+        <v>5.761459599067019</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F158" t="n">
         <v>6</v>
       </c>
       <c r="G158" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5350,28 +5350,28 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SP-RS-A23-018</t>
+          <t>SP-RS-A07-018</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>13.52481900359109</v>
+        <v>9.681639938346233</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G159" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5381,28 +5381,28 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SP-RS-A23-019</t>
+          <t>SP-RS-A07-019</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3.269176922969209</v>
+        <v>3.342795244926838</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A07</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5412,28 +5412,28 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SP-RS-A23-020</t>
+          <t>SP-RS-A07-020</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>7.58973265623904</v>
+        <v>18.3893414263286</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B29</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G161" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5443,28 +5443,28 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SP-RS-A28-001</t>
+          <t>SP-RS-A20-001</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1.255382632805745</v>
+        <v>14.04651290058577</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5474,28 +5474,28 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SP-RS-A28-002</t>
+          <t>SP-RS-A20-002</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>15.71294807953289</v>
+        <v>16.91675379053038</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A08</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5505,28 +5505,28 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SP-RS-A28-003</t>
+          <t>SP-RS-A20-003</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>14.21949680962788</v>
+        <v>15.31717863721356</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F164" t="n">
+        <v>4</v>
+      </c>
+      <c r="G164" t="n">
         <v>6</v>
-      </c>
-      <c r="G164" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5536,28 +5536,28 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SP-RS-A28-004</t>
+          <t>SP-RS-A20-004</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>17.22730028044462</v>
+        <v>8.816901279979886</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>B25</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5567,28 +5567,28 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SP-RS-A28-005</t>
+          <t>SP-RS-A20-005</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>10.49762799894608</v>
+        <v>16.90008722078557</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5598,28 +5598,28 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SP-RS-A28-006</t>
+          <t>SP-RS-A20-006</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>7.890649867991391</v>
+        <v>11.1816570003572</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5629,28 +5629,28 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SP-RS-A28-007</t>
+          <t>SP-RS-A20-007</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>18.92888787084436</v>
+        <v>18.05741177289087</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>B08</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F168" t="n">
         <v>4</v>
       </c>
       <c r="G168" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5660,28 +5660,28 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SP-RS-A28-008</t>
+          <t>SP-RS-A20-008</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>10.41849815958619</v>
+        <v>17.34641781802046</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G169" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5691,28 +5691,28 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SP-RS-A28-009</t>
+          <t>SP-RS-A20-009</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>8.354257034066384</v>
+        <v>2.970046337745304</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>A02</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G170" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5722,28 +5722,28 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SP-RS-A28-010</t>
+          <t>SP-RS-A20-010</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>10.2153865378704</v>
+        <v>10.76059807382668</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>A07</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G171" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5753,28 +5753,28 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SP-RS-A28-011</t>
+          <t>SP-RS-A20-011</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3.929926225213961</v>
+        <v>17.62595999347195</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G172" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5784,28 +5784,28 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SP-RS-A28-012</t>
+          <t>SP-RS-A20-012</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2.407091095414885</v>
+        <v>8.188749318753034</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>B16</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G173" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5815,28 +5815,28 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SP-RS-A28-013</t>
+          <t>SP-RS-A20-013</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5.437422316322393</v>
+        <v>18.68017888367224</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5846,28 +5846,28 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SP-RS-A28-014</t>
+          <t>SP-RS-A20-014</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.625668362486527</v>
+        <v>7.709382686128108</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G175" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5877,28 +5877,28 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SP-RS-A28-015</t>
+          <t>SP-RS-A20-015</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>4.700431432278293</v>
+        <v>16.34712367068714</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>B18</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G176" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5908,28 +5908,28 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SP-RS-A28-016</t>
+          <t>SP-RS-A20-016</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>12.99764085886832</v>
+        <v>9.481969458227553</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G177" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5939,28 +5939,28 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SP-RS-A28-017</t>
+          <t>SP-RS-A20-017</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3.445580683728463</v>
+        <v>0.8727395721473066</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5970,28 +5970,28 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SP-RS-A28-018</t>
+          <t>SP-RS-A20-018</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2.245984500508719</v>
+        <v>10.0705326776418</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G179" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6001,28 +6001,28 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SP-RS-A28-019</t>
+          <t>SP-RS-A20-019</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>15.26261194079206</v>
+        <v>0.6973026688352052</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6032,28 +6032,28 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SP-RS-A28-020</t>
+          <t>SP-RS-A20-020</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18.67461221836241</v>
+        <v>3.529874180966896</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G181" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6063,28 +6063,28 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SP-RS-B18-001</t>
+          <t>SP-RS-B01-001</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>14.23217719519753</v>
+        <v>5.76750439374528</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A09</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G182" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6094,28 +6094,28 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SP-RS-B18-002</t>
+          <t>SP-RS-B01-002</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>18.91469509408658</v>
+        <v>6.489843593267423</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6125,28 +6125,28 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SP-RS-B18-003</t>
+          <t>SP-RS-B01-003</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>6.58983673928664</v>
+        <v>7.707018172251233</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>B24</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6156,28 +6156,28 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SP-RS-B18-004</t>
+          <t>SP-RS-B01-004</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>4.210072667137676</v>
+        <v>6.844589019012125</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A02</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G185" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6187,19 +6187,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SP-RS-B18-005</t>
+          <t>SP-RS-B01-005</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>14.22736548104881</v>
+        <v>12.06909794159387</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G186" t="n">
         <v>19</v>
@@ -6208,7 +6208,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6218,28 +6218,28 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SP-RS-B18-006</t>
+          <t>SP-RS-B01-006</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>17.77281198879635</v>
+        <v>9.558220776658644</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>B06</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G187" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6249,28 +6249,28 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SP-RS-B18-007</t>
+          <t>SP-RS-B01-007</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>14.46392909865402</v>
+        <v>15.98119312814835</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6280,28 +6280,28 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SP-RS-B18-008</t>
+          <t>SP-RS-B01-008</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>10.73315009882421</v>
+        <v>0.7523899626395771</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>A06</t>
+          <t>B26</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G189" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6311,59 +6311,59 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SP-RS-B18-009</t>
+          <t>SP-RS-B01-009</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>8.487597345765753</v>
+        <v>11.92888140520372</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G190" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SP-RS-B01-010</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>12.22470290350011</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
           <t>B18</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>SP-RS-B18-010</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>4.465201599898952</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
       <c r="F191" t="n">
+        <v>5</v>
+      </c>
+      <c r="G191" t="n">
         <v>8</v>
-      </c>
-      <c r="G191" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6373,28 +6373,28 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SP-RS-B18-011</t>
+          <t>SP-RS-B01-011</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>14.30587661858263</v>
+        <v>2.536932737145064</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="F192" t="n">
+        <v>4</v>
+      </c>
+      <c r="G192" t="n">
         <v>5</v>
-      </c>
-      <c r="G192" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6404,28 +6404,28 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SP-RS-B18-012</t>
+          <t>SP-RS-B01-012</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>9.460430980213554</v>
+        <v>16.57512025068646</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G193" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6435,28 +6435,28 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SP-RS-B18-013</t>
+          <t>SP-RS-B01-013</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>4.362621208515196</v>
+        <v>7.268606850881262</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G194" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6466,28 +6466,28 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SP-RS-B18-014</t>
+          <t>SP-RS-B01-014</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>10.91924015687545</v>
+        <v>3.111949154530586</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G195" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6497,28 +6497,28 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SP-RS-B18-015</t>
+          <t>SP-RS-B01-015</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>7.723376697431784</v>
+        <v>6.408886042969604</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>B09</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G196" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6528,28 +6528,28 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SP-RS-B18-016</t>
+          <t>SP-RS-B01-016</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>7.461021203162153</v>
+        <v>5.030384948465321</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>B05</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G197" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6559,28 +6559,28 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SP-RS-B18-017</t>
+          <t>SP-RS-B01-017</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>7.620588252570931</v>
+        <v>0.4925831718302377</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A06</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G198" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6590,28 +6590,28 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SP-RS-B18-018</t>
+          <t>SP-RS-B01-018</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>9.419337558870854</v>
+        <v>8.344146395344742</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>B29</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G199" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6621,28 +6621,28 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SP-RS-B18-019</t>
+          <t>SP-RS-B01-019</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1.910984812322114</v>
+        <v>4.247551474940007</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>B29</t>
+          <t>B25</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6652,22 +6652,22 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SP-RS-B18-020</t>
+          <t>SP-RS-B01-020</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>6.565050256014085</v>
+        <v>1.584708694910892</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B22</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G201" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
